--- a/vfProcGenStores/test-xlrp-store-content.xlsx
+++ b/vfProcGenStores/test-xlrp-store-content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\BATTLETECH\Mods\vfProcGenStores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64334635-A15A-49B6-9110-3A46C79D07D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4012C-AD67-4AC1-9C40-B7FDF5C676F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="608">
   <si>
     <t>ActuatorTemplate</t>
   </si>
@@ -2559,7 +2559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2623,6 +2625,12 @@
       <c r="G2" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -2646,6 +2654,12 @@
       <c r="G3" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -2669,6 +2683,12 @@
       <c r="G4" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -2692,6 +2712,12 @@
       <c r="G5" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -2715,6 +2741,12 @@
       <c r="G6" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -2738,6 +2770,12 @@
       <c r="G7" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -2761,6 +2799,12 @@
       <c r="G8" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -2784,6 +2828,12 @@
       <c r="G9" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I9" t="s">
+        <v>473</v>
+      </c>
+      <c r="J9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -2807,6 +2857,12 @@
       <c r="G10" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -2830,6 +2886,12 @@
       <c r="G11" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -2853,6 +2915,12 @@
       <c r="G12" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -2876,6 +2944,12 @@
       <c r="G13" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -2899,6 +2973,12 @@
       <c r="G14" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -2922,6 +3002,12 @@
       <c r="G15" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I15" t="s">
+        <v>473</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -2945,8 +3031,14 @@
       <c r="G16" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2968,8 +3060,14 @@
       <c r="G17" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2991,8 +3089,14 @@
       <c r="G18" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3014,8 +3118,14 @@
       <c r="G19" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3037,8 +3147,14 @@
       <c r="G20" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3060,8 +3176,14 @@
       <c r="G21" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3083,8 +3205,14 @@
       <c r="G22" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3106,8 +3234,14 @@
       <c r="G23" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>473</v>
+      </c>
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3129,8 +3263,14 @@
       <c r="G24" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3152,8 +3292,14 @@
       <c r="G25" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" t="s">
+        <v>473</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3175,8 +3321,14 @@
       <c r="G26" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3198,8 +3350,14 @@
       <c r="G27" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="s">
+        <v>473</v>
+      </c>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3221,8 +3379,14 @@
       <c r="G28" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3244,8 +3408,14 @@
       <c r="G29" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="s">
+        <v>473</v>
+      </c>
+      <c r="J29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3267,8 +3437,14 @@
       <c r="G30" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3290,8 +3466,14 @@
       <c r="G31" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" t="s">
+        <v>473</v>
+      </c>
+      <c r="J31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3313,8 +3495,14 @@
       <c r="G32" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3336,8 +3524,14 @@
       <c r="G33" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="s">
+        <v>473</v>
+      </c>
+      <c r="J33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3359,8 +3553,14 @@
       <c r="G34" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3382,8 +3582,14 @@
       <c r="G35" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>473</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3405,8 +3611,14 @@
       <c r="G36" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>473</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3428,8 +3640,14 @@
       <c r="G37" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3451,8 +3669,14 @@
       <c r="G38" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="s">
+        <v>473</v>
+      </c>
+      <c r="J38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3474,8 +3698,14 @@
       <c r="G39" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3497,8 +3727,14 @@
       <c r="G40" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>473</v>
+      </c>
+      <c r="J40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3520,8 +3756,14 @@
       <c r="G41" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" t="s">
+        <v>473</v>
+      </c>
+      <c r="J41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3543,8 +3785,14 @@
       <c r="G42" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="s">
+        <v>473</v>
+      </c>
+      <c r="J42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3566,8 +3814,14 @@
       <c r="G43" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3589,8 +3843,14 @@
       <c r="G44" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3612,8 +3872,14 @@
       <c r="G45" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3635,8 +3901,14 @@
       <c r="G46" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3658,8 +3930,14 @@
       <c r="G47" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" t="s">
+        <v>473</v>
+      </c>
+      <c r="J47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3681,8 +3959,14 @@
       <c r="G48" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="s">
+        <v>473</v>
+      </c>
+      <c r="J48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3704,8 +3988,14 @@
       <c r="G49" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3727,8 +4017,14 @@
       <c r="G50" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" t="s">
+        <v>473</v>
+      </c>
+      <c r="J50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3750,8 +4046,14 @@
       <c r="G51" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" t="s">
+        <v>473</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3773,8 +4075,14 @@
       <c r="G52" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3796,8 +4104,14 @@
       <c r="G53" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3819,8 +4133,14 @@
       <c r="G54" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3842,8 +4162,14 @@
       <c r="G55" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3865,8 +4191,14 @@
       <c r="G56" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3888,8 +4220,14 @@
       <c r="G57" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3911,8 +4249,14 @@
       <c r="G58" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3934,8 +4278,14 @@
       <c r="G59" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" t="s">
+        <v>473</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3957,8 +4307,14 @@
       <c r="G60" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3980,8 +4336,14 @@
       <c r="G61" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4365,14 @@
       <c r="G62" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4026,8 +4394,14 @@
       <c r="G63" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4049,8 +4423,14 @@
       <c r="G64" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64" t="s">
+        <v>473</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4072,8 +4452,14 @@
       <c r="G65" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65" t="s">
+        <v>473</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4095,8 +4481,14 @@
       <c r="G66" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4118,8 +4510,14 @@
       <c r="G67" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67" t="s">
+        <v>473</v>
+      </c>
+      <c r="J67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4141,8 +4539,14 @@
       <c r="G68" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68" t="s">
+        <v>473</v>
+      </c>
+      <c r="J68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4164,8 +4568,14 @@
       <c r="G69" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69" t="s">
+        <v>473</v>
+      </c>
+      <c r="J69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4187,8 +4597,14 @@
       <c r="G70" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70" t="s">
+        <v>473</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4210,8 +4626,14 @@
       <c r="G71" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71" t="s">
+        <v>473</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4233,8 +4655,14 @@
       <c r="G72" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4256,8 +4684,14 @@
       <c r="G73" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" t="s">
+        <v>473</v>
+      </c>
+      <c r="J73" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4279,8 +4713,14 @@
       <c r="G74" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4302,8 +4742,14 @@
       <c r="G75" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75" t="s">
+        <v>473</v>
+      </c>
+      <c r="J75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4325,8 +4771,14 @@
       <c r="G76" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76" t="s">
+        <v>473</v>
+      </c>
+      <c r="J76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4348,8 +4800,14 @@
       <c r="G77" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77" t="s">
+        <v>473</v>
+      </c>
+      <c r="J77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4371,8 +4829,14 @@
       <c r="G78" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78" t="s">
+        <v>473</v>
+      </c>
+      <c r="J78" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4394,8 +4858,14 @@
       <c r="G79" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79" t="s">
+        <v>473</v>
+      </c>
+      <c r="J79" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4417,8 +4887,14 @@
       <c r="G80" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80" t="s">
+        <v>473</v>
+      </c>
+      <c r="J80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4440,8 +4916,14 @@
       <c r="G81" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="I81" t="s">
+        <v>473</v>
+      </c>
+      <c r="J81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4463,8 +4945,14 @@
       <c r="G82" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82" t="s">
+        <v>473</v>
+      </c>
+      <c r="J82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4486,8 +4974,14 @@
       <c r="G83" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="I83" t="s">
+        <v>473</v>
+      </c>
+      <c r="J83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4509,8 +5003,14 @@
       <c r="G84" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84" t="s">
+        <v>473</v>
+      </c>
+      <c r="J84" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4532,8 +5032,14 @@
       <c r="G85" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85" t="s">
+        <v>473</v>
+      </c>
+      <c r="J85" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4555,8 +5061,14 @@
       <c r="G86" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86" t="s">
+        <v>473</v>
+      </c>
+      <c r="J86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4578,8 +5090,14 @@
       <c r="G87" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87" t="s">
+        <v>473</v>
+      </c>
+      <c r="J87" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4601,8 +5119,14 @@
       <c r="G88" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88" t="s">
+        <v>473</v>
+      </c>
+      <c r="J88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4624,8 +5148,14 @@
       <c r="G89" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89" t="s">
+        <v>473</v>
+      </c>
+      <c r="J89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4647,8 +5177,14 @@
       <c r="G90" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="I90" t="s">
+        <v>473</v>
+      </c>
+      <c r="J90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4670,8 +5206,14 @@
       <c r="G91" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91" t="s">
+        <v>473</v>
+      </c>
+      <c r="J91" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4693,8 +5235,14 @@
       <c r="G92" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92" t="s">
+        <v>473</v>
+      </c>
+      <c r="J92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4716,8 +5264,14 @@
       <c r="G93" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I93" t="s">
+        <v>473</v>
+      </c>
+      <c r="J93" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4739,8 +5293,14 @@
       <c r="G94" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94" t="s">
+        <v>473</v>
+      </c>
+      <c r="J94" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4762,8 +5322,14 @@
       <c r="G95" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="I95" t="s">
+        <v>473</v>
+      </c>
+      <c r="J95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4785,8 +5351,14 @@
       <c r="G96" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96" t="s">
+        <v>473</v>
+      </c>
+      <c r="J96" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4808,8 +5380,14 @@
       <c r="G97" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97" t="s">
+        <v>473</v>
+      </c>
+      <c r="J97" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4831,8 +5409,14 @@
       <c r="G98" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98" t="s">
+        <v>473</v>
+      </c>
+      <c r="J98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4854,8 +5438,14 @@
       <c r="G99" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99" t="s">
+        <v>473</v>
+      </c>
+      <c r="J99" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4877,8 +5467,14 @@
       <c r="G100" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100" t="s">
+        <v>473</v>
+      </c>
+      <c r="J100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4900,8 +5496,14 @@
       <c r="G101" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101" t="s">
+        <v>473</v>
+      </c>
+      <c r="J101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4923,8 +5525,14 @@
       <c r="G102" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="I102" t="s">
+        <v>473</v>
+      </c>
+      <c r="J102" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4946,8 +5554,14 @@
       <c r="G103" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="I103" t="s">
+        <v>473</v>
+      </c>
+      <c r="J103" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4969,8 +5583,14 @@
       <c r="G104" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="I104" t="s">
+        <v>473</v>
+      </c>
+      <c r="J104" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4992,8 +5612,14 @@
       <c r="G105" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="I105" t="s">
+        <v>473</v>
+      </c>
+      <c r="J105" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5015,8 +5641,14 @@
       <c r="G106" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="I106" t="s">
+        <v>473</v>
+      </c>
+      <c r="J106" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5038,8 +5670,14 @@
       <c r="G107" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="I107" t="s">
+        <v>473</v>
+      </c>
+      <c r="J107" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5061,8 +5699,14 @@
       <c r="G108" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="I108" t="s">
+        <v>473</v>
+      </c>
+      <c r="J108" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5084,8 +5728,14 @@
       <c r="G109" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="I109" t="s">
+        <v>473</v>
+      </c>
+      <c r="J109" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5107,8 +5757,14 @@
       <c r="G110" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="I110" t="s">
+        <v>473</v>
+      </c>
+      <c r="J110" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5130,8 +5786,14 @@
       <c r="G111" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="I111" t="s">
+        <v>473</v>
+      </c>
+      <c r="J111" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5153,8 +5815,14 @@
       <c r="G112" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="I112" t="s">
+        <v>473</v>
+      </c>
+      <c r="J112" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5176,8 +5844,14 @@
       <c r="G113" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="I113" t="s">
+        <v>473</v>
+      </c>
+      <c r="J113" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5199,8 +5873,14 @@
       <c r="G114" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="I114" t="s">
+        <v>473</v>
+      </c>
+      <c r="J114" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5222,8 +5902,14 @@
       <c r="G115" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="I115" t="s">
+        <v>473</v>
+      </c>
+      <c r="J115" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5245,8 +5931,14 @@
       <c r="G116" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="I116" t="s">
+        <v>473</v>
+      </c>
+      <c r="J116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5268,8 +5960,14 @@
       <c r="G117" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="I117" t="s">
+        <v>473</v>
+      </c>
+      <c r="J117" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5291,8 +5989,14 @@
       <c r="G118" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="I118" t="s">
+        <v>473</v>
+      </c>
+      <c r="J118" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5314,8 +6018,14 @@
       <c r="G119" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="I119" t="s">
+        <v>473</v>
+      </c>
+      <c r="J119" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5337,8 +6047,14 @@
       <c r="G120" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="I120" t="s">
+        <v>473</v>
+      </c>
+      <c r="J120" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -5360,8 +6076,14 @@
       <c r="G121" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="I121" t="s">
+        <v>473</v>
+      </c>
+      <c r="J121" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -5383,8 +6105,14 @@
       <c r="G122" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="I122" t="s">
+        <v>473</v>
+      </c>
+      <c r="J122" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -5406,8 +6134,14 @@
       <c r="G123" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="I123" t="s">
+        <v>473</v>
+      </c>
+      <c r="J123" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -5429,8 +6163,14 @@
       <c r="G124" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="I124" t="s">
+        <v>473</v>
+      </c>
+      <c r="J124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -5452,8 +6192,14 @@
       <c r="G125" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="I125" t="s">
+        <v>473</v>
+      </c>
+      <c r="J125" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -5475,8 +6221,14 @@
       <c r="G126" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="I126" t="s">
+        <v>473</v>
+      </c>
+      <c r="J126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -5498,8 +6250,14 @@
       <c r="G127" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="I127" t="s">
+        <v>473</v>
+      </c>
+      <c r="J127" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5521,8 +6279,14 @@
       <c r="G128" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="I128" t="s">
+        <v>473</v>
+      </c>
+      <c r="J128" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -5544,8 +6308,14 @@
       <c r="G129" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="I129" t="s">
+        <v>473</v>
+      </c>
+      <c r="J129" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -5567,8 +6337,14 @@
       <c r="G130" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="I130" t="s">
+        <v>473</v>
+      </c>
+      <c r="J130" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -5590,8 +6366,14 @@
       <c r="G131" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131" t="s">
+        <v>473</v>
+      </c>
+      <c r="J131" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -5613,8 +6395,14 @@
       <c r="G132" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132" t="s">
+        <v>473</v>
+      </c>
+      <c r="J132" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -5636,8 +6424,14 @@
       <c r="G133" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="I133" t="s">
+        <v>473</v>
+      </c>
+      <c r="J133" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -5659,8 +6453,14 @@
       <c r="G134" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="I134" t="s">
+        <v>473</v>
+      </c>
+      <c r="J134" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -5680,6 +6480,12 @@
         <v>473</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I135" t="s">
+        <v>473</v>
+      </c>
+      <c r="J135" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5692,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5762,6 +6568,12 @@
       <c r="G2" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -5785,6 +6597,12 @@
       <c r="G3" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -5808,6 +6626,12 @@
       <c r="G4" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -5831,6 +6655,12 @@
       <c r="G5" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -5854,6 +6684,12 @@
       <c r="G6" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -5877,6 +6713,12 @@
       <c r="G7" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -5900,6 +6742,12 @@
       <c r="G8" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -5923,6 +6771,12 @@
       <c r="G9" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I9" t="s">
+        <v>473</v>
+      </c>
+      <c r="J9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -5946,6 +6800,12 @@
       <c r="G10" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -5969,6 +6829,12 @@
       <c r="G11" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -5992,6 +6858,12 @@
       <c r="G12" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -6015,6 +6887,12 @@
       <c r="G13" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -6038,6 +6916,12 @@
       <c r="G14" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -6061,6 +6945,12 @@
       <c r="G15" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I15" t="s">
+        <v>473</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -6084,8 +6974,14 @@
       <c r="G16" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -6107,8 +7003,14 @@
       <c r="G17" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -6130,8 +7032,14 @@
       <c r="G18" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -6153,8 +7061,14 @@
       <c r="G19" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -6176,8 +7090,14 @@
       <c r="G20" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -6199,8 +7119,14 @@
       <c r="G21" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -6222,8 +7148,14 @@
       <c r="G22" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -6245,8 +7177,14 @@
       <c r="G23" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>473</v>
+      </c>
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -6268,8 +7206,14 @@
       <c r="G24" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -6291,8 +7235,14 @@
       <c r="G25" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" t="s">
+        <v>473</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -6314,8 +7264,14 @@
       <c r="G26" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -6337,8 +7293,14 @@
       <c r="G27" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="s">
+        <v>473</v>
+      </c>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -6360,8 +7322,14 @@
       <c r="G28" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -6383,8 +7351,14 @@
       <c r="G29" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="s">
+        <v>473</v>
+      </c>
+      <c r="J29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -6406,8 +7380,14 @@
       <c r="G30" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -6429,8 +7409,14 @@
       <c r="G31" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" t="s">
+        <v>473</v>
+      </c>
+      <c r="J31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -6452,8 +7438,14 @@
       <c r="G32" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -6475,8 +7467,14 @@
       <c r="G33" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="s">
+        <v>473</v>
+      </c>
+      <c r="J33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -6498,8 +7496,14 @@
       <c r="G34" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6521,8 +7525,14 @@
       <c r="G35" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>473</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -6544,8 +7554,14 @@
       <c r="G36" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>473</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -6567,8 +7583,14 @@
       <c r="G37" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -6590,8 +7612,14 @@
       <c r="G38" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="s">
+        <v>473</v>
+      </c>
+      <c r="J38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -6613,8 +7641,14 @@
       <c r="G39" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -6636,8 +7670,14 @@
       <c r="G40" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>473</v>
+      </c>
+      <c r="J40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -6659,8 +7699,14 @@
       <c r="G41" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" t="s">
+        <v>473</v>
+      </c>
+      <c r="J41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -6682,8 +7728,14 @@
       <c r="G42" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="s">
+        <v>473</v>
+      </c>
+      <c r="J42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -6705,8 +7757,14 @@
       <c r="G43" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -6728,8 +7786,14 @@
       <c r="G44" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -6751,8 +7815,14 @@
       <c r="G45" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -6774,8 +7844,14 @@
       <c r="G46" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6797,8 +7873,14 @@
       <c r="G47" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" t="s">
+        <v>473</v>
+      </c>
+      <c r="J47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -6820,8 +7902,14 @@
       <c r="G48" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="s">
+        <v>473</v>
+      </c>
+      <c r="J48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -6843,8 +7931,14 @@
       <c r="G49" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -6866,8 +7960,14 @@
       <c r="G50" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" t="s">
+        <v>473</v>
+      </c>
+      <c r="J50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -6889,8 +7989,14 @@
       <c r="G51" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" t="s">
+        <v>473</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>184</v>
       </c>
@@ -6912,8 +8018,14 @@
       <c r="G52" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -6935,8 +8047,14 @@
       <c r="G53" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -6958,8 +8076,14 @@
       <c r="G54" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -6981,8 +8105,14 @@
       <c r="G55" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -7004,8 +8134,14 @@
       <c r="G56" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -7027,8 +8163,14 @@
       <c r="G57" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -7049,6 +8191,12 @@
       </c>
       <c r="G58" s="2" t="s">
         <v>481</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7062,7 +8210,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:I1"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10140,7 +11288,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10209,6 +11357,12 @@
       <c r="G2" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -10232,6 +11386,12 @@
       <c r="G3" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -10255,6 +11415,12 @@
       <c r="G4" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -10278,6 +11444,12 @@
       <c r="G5" s="3" t="s">
         <v>482</v>
       </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -10299,6 +11471,12 @@
         <v>473</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
         <v>473</v>
       </c>
     </row>
